--- a/Code/Results/Cases/Case_2_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_240/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9991099876429508</v>
+        <v>1.047658907431494</v>
       </c>
       <c r="D2">
-        <v>1.018152445406472</v>
+        <v>1.048344837462129</v>
       </c>
       <c r="E2">
-        <v>1.007304251986636</v>
+        <v>1.058376802429152</v>
       </c>
       <c r="F2">
-        <v>1.016234501695058</v>
+        <v>1.066248942139921</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046411980785329</v>
+        <v>1.041508688651584</v>
       </c>
       <c r="J2">
-        <v>1.021317351453628</v>
+        <v>1.052706800491214</v>
       </c>
       <c r="K2">
-        <v>1.029364550291082</v>
+        <v>1.051104942810012</v>
       </c>
       <c r="L2">
-        <v>1.018662756330764</v>
+        <v>1.06110920413722</v>
       </c>
       <c r="M2">
-        <v>1.027472204052567</v>
+        <v>1.068959999701391</v>
       </c>
       <c r="N2">
-        <v>1.02276773923943</v>
+        <v>1.054201764895069</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008883289520369</v>
+        <v>1.049435552865936</v>
       </c>
       <c r="D3">
-        <v>1.025784408087639</v>
+        <v>1.049720972898623</v>
       </c>
       <c r="E3">
-        <v>1.015746870628629</v>
+        <v>1.05993623212775</v>
       </c>
       <c r="F3">
-        <v>1.025140657664248</v>
+        <v>1.067909521328594</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050028122161439</v>
+        <v>1.042027919677412</v>
       </c>
       <c r="J3">
-        <v>1.029134682045585</v>
+        <v>1.054127946448451</v>
       </c>
       <c r="K3">
-        <v>1.036097668961581</v>
+        <v>1.052291645408929</v>
       </c>
       <c r="L3">
-        <v>1.026182155228918</v>
+        <v>1.062480765871848</v>
       </c>
       <c r="M3">
-        <v>1.035461655438211</v>
+        <v>1.07043402732839</v>
       </c>
       <c r="N3">
-        <v>1.030596171337487</v>
+        <v>1.055624929042573</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014958697921166</v>
+        <v>1.050581628555122</v>
       </c>
       <c r="D4">
-        <v>1.030530524946002</v>
+        <v>1.050608216332054</v>
       </c>
       <c r="E4">
-        <v>1.020991973014579</v>
+        <v>1.06094101470865</v>
       </c>
       <c r="F4">
-        <v>1.030678325197526</v>
+        <v>1.068980197803043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052258893235543</v>
+        <v>1.042360759715498</v>
       </c>
       <c r="J4">
-        <v>1.033987347272579</v>
+        <v>1.055043728151591</v>
       </c>
       <c r="K4">
-        <v>1.040273924739842</v>
+        <v>1.053055791144956</v>
       </c>
       <c r="L4">
-        <v>1.030843476788795</v>
+        <v>1.063363500374314</v>
       </c>
       <c r="M4">
-        <v>1.040420069299115</v>
+        <v>1.071383523681383</v>
       </c>
       <c r="N4">
-        <v>1.035455727905712</v>
+        <v>1.056542011260774</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017457702402778</v>
+        <v>1.051062611107193</v>
       </c>
       <c r="D5">
-        <v>1.03248302813206</v>
+        <v>1.050980458448197</v>
       </c>
       <c r="E5">
-        <v>1.023148604936245</v>
+        <v>1.06136242008602</v>
       </c>
       <c r="F5">
-        <v>1.032956357679861</v>
+        <v>1.069429411277858</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053172289865898</v>
+        <v>1.042499940886447</v>
       </c>
       <c r="J5">
-        <v>1.035981683605505</v>
+        <v>1.055427829037891</v>
       </c>
       <c r="K5">
-        <v>1.041989422107132</v>
+        <v>1.053376157275092</v>
       </c>
       <c r="L5">
-        <v>1.032757645783613</v>
+        <v>1.06373347959474</v>
       </c>
       <c r="M5">
-        <v>1.042457607285217</v>
+        <v>1.071781679703469</v>
       </c>
       <c r="N5">
-        <v>1.037452896424985</v>
+        <v>1.056926657614389</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017874184031391</v>
+        <v>1.051143322180778</v>
       </c>
       <c r="D6">
-        <v>1.032808442282752</v>
+        <v>1.051042915638366</v>
       </c>
       <c r="E6">
-        <v>1.023507975011621</v>
+        <v>1.061433117466951</v>
       </c>
       <c r="F6">
-        <v>1.033336022578072</v>
+        <v>1.069504783998765</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053324267064145</v>
+        <v>1.042523266523639</v>
       </c>
       <c r="J6">
-        <v>1.036313954774639</v>
+        <v>1.055492269282419</v>
       </c>
       <c r="K6">
-        <v>1.04227518552932</v>
+        <v>1.053429896865351</v>
       </c>
       <c r="L6">
-        <v>1.033076470708178</v>
+        <v>1.063795535397926</v>
       </c>
       <c r="M6">
-        <v>1.042797061119024</v>
+        <v>1.071848472975872</v>
       </c>
       <c r="N6">
-        <v>1.037785639457292</v>
+        <v>1.056991189371455</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014992300788948</v>
+        <v>1.050588058695107</v>
       </c>
       <c r="D7">
-        <v>1.030556778386282</v>
+        <v>1.050613193198361</v>
       </c>
       <c r="E7">
-        <v>1.021020975625145</v>
+        <v>1.060946649473736</v>
       </c>
       <c r="F7">
-        <v>1.030708956019959</v>
+        <v>1.068986203723366</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052271191933631</v>
+        <v>1.042362622379033</v>
       </c>
       <c r="J7">
-        <v>1.034014171015791</v>
+        <v>1.055048864018155</v>
       </c>
       <c r="K7">
-        <v>1.040297001532354</v>
+        <v>1.053060075336805</v>
       </c>
       <c r="L7">
-        <v>1.03086922834195</v>
+        <v>1.063368448442302</v>
       </c>
       <c r="M7">
-        <v>1.040447475121455</v>
+        <v>1.071388847816331</v>
       </c>
       <c r="N7">
-        <v>1.035482589741716</v>
+        <v>1.056547154420857</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002467217152171</v>
+        <v>1.048260075475531</v>
       </c>
       <c r="D8">
-        <v>1.020773606453747</v>
+        <v>1.048810581042503</v>
       </c>
       <c r="E8">
-        <v>1.010204974827058</v>
+        <v>1.058904714378963</v>
       </c>
       <c r="F8">
-        <v>1.019293516532867</v>
+        <v>1.066810946315154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047657756250411</v>
+        <v>1.041684818566423</v>
       </c>
       <c r="J8">
-        <v>1.024004091958969</v>
+        <v>1.053187878064723</v>
       </c>
       <c r="K8">
-        <v>1.031679350409445</v>
+        <v>1.051506774302856</v>
       </c>
       <c r="L8">
-        <v>1.021248465054126</v>
+        <v>1.061573725005767</v>
       </c>
       <c r="M8">
-        <v>1.030218336037296</v>
+        <v>1.06945905430259</v>
       </c>
       <c r="N8">
-        <v>1.025458295224461</v>
+        <v>1.054683525653913</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9782614922715299</v>
+        <v>1.044129999461962</v>
       </c>
       <c r="D9">
-        <v>1.001891076840699</v>
+        <v>1.045608988150957</v>
       </c>
       <c r="E9">
-        <v>0.9892819541632253</v>
+        <v>1.055273042592385</v>
       </c>
       <c r="F9">
-        <v>0.9972486429278493</v>
+        <v>1.062947732540468</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038603568385682</v>
+        <v>1.040466131551278</v>
       </c>
       <c r="J9">
-        <v>1.004605958471908</v>
+        <v>1.049878854236686</v>
       </c>
       <c r="K9">
-        <v>1.014953546972201</v>
+        <v>1.048740535529212</v>
       </c>
       <c r="L9">
-        <v>1.002551351172373</v>
+        <v>1.058374004952552</v>
       </c>
       <c r="M9">
-        <v>1.01038651726488</v>
+        <v>1.066024838563213</v>
       </c>
       <c r="N9">
-        <v>1.006032614162852</v>
+        <v>1.05136980263249</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9602992710086327</v>
+        <v>1.041356728396774</v>
       </c>
       <c r="D10">
-        <v>0.9879109060118342</v>
+        <v>1.0434568472364</v>
       </c>
       <c r="E10">
-        <v>0.9737518540020271</v>
+        <v>1.052828269884502</v>
       </c>
       <c r="F10">
-        <v>0.9809110458873671</v>
+        <v>1.060350866815845</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031796044615326</v>
+        <v>1.03963692928519</v>
       </c>
       <c r="J10">
-        <v>0.9901816553862107</v>
+        <v>1.047651913715035</v>
       </c>
       <c r="K10">
-        <v>1.002501918047424</v>
+        <v>1.046876013239203</v>
       </c>
       <c r="L10">
-        <v>0.9886117698221468</v>
+        <v>1.056214801191885</v>
       </c>
       <c r="M10">
-        <v>0.9956337281429168</v>
+        <v>1.063711660649192</v>
       </c>
       <c r="N10">
-        <v>0.9915878269122823</v>
+        <v>1.049139699599865</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9519756423921757</v>
+        <v>1.040150897250525</v>
       </c>
       <c r="D11">
-        <v>0.9814444222942827</v>
+        <v>1.04252055108532</v>
       </c>
       <c r="E11">
-        <v>0.9665574253108811</v>
+        <v>1.051763794064084</v>
       </c>
       <c r="F11">
-        <v>0.9733482533593746</v>
+        <v>1.059221068657623</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028622156163255</v>
+        <v>1.039273814112397</v>
       </c>
       <c r="J11">
-        <v>0.9834923643016011</v>
+        <v>1.046682450648252</v>
       </c>
       <c r="K11">
-        <v>0.9967249637195965</v>
+        <v>1.046063649006397</v>
       </c>
       <c r="L11">
-        <v>0.9821388327319297</v>
+        <v>1.055273425780503</v>
       </c>
       <c r="M11">
-        <v>0.9887909145813935</v>
+        <v>1.062704169919472</v>
       </c>
       <c r="N11">
-        <v>0.9848890362670604</v>
+        <v>1.048168859784328</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9487896392704206</v>
+        <v>1.039702226413301</v>
       </c>
       <c r="D12">
-        <v>0.9789715028873944</v>
+        <v>1.042172091019213</v>
       </c>
       <c r="E12">
-        <v>0.9638043108587933</v>
+        <v>1.051367496249382</v>
       </c>
       <c r="F12">
-        <v>0.9704549981606502</v>
+        <v>1.058800587377072</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027404590512144</v>
+        <v>1.039138318383942</v>
       </c>
       <c r="J12">
-        <v>0.9809313667579939</v>
+        <v>1.046321551943612</v>
       </c>
       <c r="K12">
-        <v>0.9945129776470552</v>
+        <v>1.045761132224129</v>
       </c>
       <c r="L12">
-        <v>0.9796594455277885</v>
+        <v>1.054922771163911</v>
       </c>
       <c r="M12">
-        <v>0.9861710014118295</v>
+        <v>1.062329040587693</v>
       </c>
       <c r="N12">
-        <v>0.9823244018131905</v>
+        <v>1.047807448562131</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9494775382451542</v>
+        <v>1.039798503102269</v>
       </c>
       <c r="D13">
-        <v>0.979505329345463</v>
+        <v>1.042246867829006</v>
       </c>
       <c r="E13">
-        <v>0.9643987070488694</v>
+        <v>1.051452544740146</v>
       </c>
       <c r="F13">
-        <v>0.9710796143554598</v>
+        <v>1.058890819679438</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027667597114439</v>
+        <v>1.039167410797114</v>
       </c>
       <c r="J13">
-        <v>0.9814843406398998</v>
+        <v>1.046399002300436</v>
       </c>
       <c r="K13">
-        <v>0.9949906032514468</v>
+        <v>1.045826058126138</v>
       </c>
       <c r="L13">
-        <v>0.9801948519758779</v>
+        <v>1.054998032713459</v>
       </c>
       <c r="M13">
-        <v>0.9867367018849329</v>
+        <v>1.062409548272581</v>
       </c>
       <c r="N13">
-        <v>0.9828781609814359</v>
+        <v>1.047885008907346</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9517142891821685</v>
+        <v>1.040113825846773</v>
       </c>
       <c r="D14">
-        <v>0.9812415166097038</v>
+        <v>1.042491761192784</v>
       </c>
       <c r="E14">
-        <v>0.9663315669023721</v>
+        <v>1.05173105453316</v>
       </c>
       <c r="F14">
-        <v>0.9731108818088996</v>
+        <v>1.059186328479892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028522330683513</v>
+        <v>1.039262626657974</v>
       </c>
       <c r="J14">
-        <v>0.9832822914079912</v>
+        <v>1.046652635012882</v>
       </c>
       <c r="K14">
-        <v>0.9965435244298818</v>
+        <v>1.046038658641814</v>
       </c>
       <c r="L14">
-        <v>0.9819354784551245</v>
+        <v>1.055244460791279</v>
       </c>
       <c r="M14">
-        <v>0.9885760114979734</v>
+        <v>1.06267318014104</v>
       </c>
       <c r="N14">
-        <v>0.9846786650458457</v>
+        <v>1.048139001807336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9530795263855473</v>
+        <v>1.040308003698487</v>
       </c>
       <c r="D15">
-        <v>0.9823015331567723</v>
+        <v>1.042642557748465</v>
       </c>
       <c r="E15">
-        <v>0.9675114183554654</v>
+        <v>1.051902533151793</v>
       </c>
       <c r="F15">
-        <v>0.9743509092523543</v>
+        <v>1.059368291363468</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029043683171676</v>
+        <v>1.039321210087081</v>
       </c>
       <c r="J15">
-        <v>0.9843796328927612</v>
+        <v>1.046808800343254</v>
       </c>
       <c r="K15">
-        <v>0.9974912841971902</v>
+        <v>1.046169546537238</v>
       </c>
       <c r="L15">
-        <v>0.982997675384525</v>
+        <v>1.055396162009028</v>
       </c>
       <c r="M15">
-        <v>0.9896985787079494</v>
+        <v>1.062835492236332</v>
       </c>
       <c r="N15">
-        <v>0.9857775648813911</v>
+        <v>1.048295388910389</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9608391974236533</v>
+        <v>1.041436648482842</v>
       </c>
       <c r="D16">
-        <v>0.9883306441898452</v>
+        <v>1.043518891944189</v>
       </c>
       <c r="E16">
-        <v>0.9742186040636232</v>
+        <v>1.052898790050783</v>
       </c>
       <c r="F16">
-        <v>0.9814018084612757</v>
+        <v>1.060425733463393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032001544034413</v>
+        <v>1.03966094172866</v>
       </c>
       <c r="J16">
-        <v>0.9906154790266195</v>
+        <v>1.047716143031323</v>
       </c>
       <c r="K16">
-        <v>1.002876530175906</v>
+        <v>1.04692982024461</v>
       </c>
       <c r="L16">
-        <v>0.9890313927416436</v>
+        <v>1.056277140050943</v>
       </c>
       <c r="M16">
-        <v>0.9960774867663755</v>
+        <v>1.063778399076404</v>
       </c>
       <c r="N16">
-        <v>0.9920222666320209</v>
+        <v>1.049204020129149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9655526479585428</v>
+        <v>1.04214326686817</v>
       </c>
       <c r="D17">
-        <v>0.9919962421982164</v>
+        <v>1.044067402543828</v>
       </c>
       <c r="E17">
-        <v>0.9782935124070284</v>
+        <v>1.053522128031078</v>
       </c>
       <c r="F17">
-        <v>0.9856869888877737</v>
+        <v>1.061087594376778</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03379338225598</v>
+        <v>1.039872952559011</v>
       </c>
       <c r="J17">
-        <v>0.9944021231798099</v>
+        <v>1.048283894651643</v>
       </c>
       <c r="K17">
-        <v>1.006146076883137</v>
+        <v>1.047405366809213</v>
       </c>
       <c r="L17">
-        <v>0.9926931490472239</v>
+        <v>1.056828019540893</v>
       </c>
       <c r="M17">
-        <v>0.9999507191493413</v>
+        <v>1.06436827375341</v>
       </c>
       <c r="N17">
-        <v>0.9958142882542429</v>
+        <v>1.049772578021892</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9682502046177311</v>
+        <v>1.042554945815819</v>
       </c>
       <c r="D18">
-        <v>0.9940951695331837</v>
+        <v>1.04438691558981</v>
       </c>
       <c r="E18">
-        <v>0.9806257996094531</v>
+        <v>1.053885145340927</v>
       </c>
       <c r="F18">
-        <v>0.9881401580626984</v>
+        <v>1.06147313309053</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0348170686702</v>
+        <v>1.039996223200174</v>
       </c>
       <c r="J18">
-        <v>0.9965687699351206</v>
+        <v>1.048614555714972</v>
       </c>
       <c r="K18">
-        <v>1.008016612459523</v>
+        <v>1.047682262360335</v>
       </c>
       <c r="L18">
-        <v>0.9947875525733321</v>
+        <v>1.057148719611741</v>
       </c>
       <c r="M18">
-        <v>1.002166796986076</v>
+        <v>1.064711772762542</v>
       </c>
       <c r="N18">
-        <v>0.9979840118964637</v>
+        <v>1.050103708661857</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9691615591923219</v>
+        <v>1.042695237019783</v>
       </c>
       <c r="D19">
-        <v>0.9948044498531013</v>
+        <v>1.044495789866202</v>
       </c>
       <c r="E19">
-        <v>0.9814137708176921</v>
+        <v>1.054008829650195</v>
       </c>
       <c r="F19">
-        <v>0.9889690607906911</v>
+        <v>1.061604505379885</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035162604868798</v>
+        <v>1.040038189101624</v>
       </c>
       <c r="J19">
-        <v>0.9973006712215101</v>
+        <v>1.048727218527179</v>
       </c>
       <c r="K19">
-        <v>1.008648443387416</v>
+        <v>1.04777659516978</v>
       </c>
       <c r="L19">
-        <v>0.9954949157145307</v>
+        <v>1.057257965735341</v>
       </c>
       <c r="M19">
-        <v>1.002915376241329</v>
+        <v>1.064828801848719</v>
       </c>
       <c r="N19">
-        <v>0.9987169525666305</v>
+        <v>1.050216531468182</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9650523689390762</v>
+        <v>1.042067503170931</v>
       </c>
       <c r="D20">
-        <v>0.991607066680451</v>
+        <v>1.044008596510934</v>
       </c>
       <c r="E20">
-        <v>0.9778609869895739</v>
+        <v>1.053455308381687</v>
       </c>
       <c r="F20">
-        <v>0.9852320892200943</v>
+        <v>1.061016636242547</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033603385498822</v>
+        <v>1.039850246374173</v>
       </c>
       <c r="J20">
-        <v>0.9940002637241689</v>
+        <v>1.048223032005982</v>
       </c>
       <c r="K20">
-        <v>1.005799118786627</v>
+        <v>1.047354395202842</v>
       </c>
       <c r="L20">
-        <v>0.9923046248925527</v>
+        <v>1.056768979518791</v>
       </c>
       <c r="M20">
-        <v>0.9995396820439841</v>
+        <v>1.064305044362864</v>
       </c>
       <c r="N20">
-        <v>0.9954118581120809</v>
+        <v>1.049711628944293</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9510583349682079</v>
+        <v>1.040020992634353</v>
       </c>
       <c r="D21">
-        <v>0.9807322936568205</v>
+        <v>1.042419665047899</v>
       </c>
       <c r="E21">
-        <v>0.9657647109351049</v>
+        <v>1.051649065474261</v>
       </c>
       <c r="F21">
-        <v>0.9725151433707854</v>
+        <v>1.059099331425935</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028271742194989</v>
+        <v>1.039234605099709</v>
       </c>
       <c r="J21">
-        <v>0.9827550342195706</v>
+        <v>1.046577968648389</v>
       </c>
       <c r="K21">
-        <v>0.996088129995568</v>
+        <v>1.045976074427926</v>
       </c>
       <c r="L21">
-        <v>0.9814250648020936</v>
+        <v>1.055171921244896</v>
       </c>
       <c r="M21">
-        <v>0.9880366290556776</v>
+        <v>1.062595572204508</v>
       </c>
       <c r="N21">
-        <v>0.9841506590917405</v>
+        <v>1.04806422940804</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9417062893740183</v>
+        <v>1.038729795543063</v>
       </c>
       <c r="D22">
-        <v>0.9734782480020981</v>
+        <v>1.041416709962735</v>
       </c>
       <c r="E22">
-        <v>0.9576850951815586</v>
+        <v>1.050508167062721</v>
       </c>
       <c r="F22">
-        <v>0.9640257702587673</v>
+        <v>1.0578890676494</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024692836659188</v>
+        <v>1.038843944081623</v>
       </c>
       <c r="J22">
-        <v>0.9752367980798622</v>
+        <v>1.045539031858845</v>
       </c>
       <c r="K22">
-        <v>0.9895940733185496</v>
+        <v>1.045105015221287</v>
       </c>
       <c r="L22">
-        <v>0.9741441557625371</v>
+        <v>1.054162073038483</v>
       </c>
       <c r="M22">
-        <v>0.9803452328195337</v>
+        <v>1.061515527708601</v>
       </c>
       <c r="N22">
-        <v>0.9766217461943598</v>
+        <v>1.047023817209088</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9467212847914739</v>
+        <v>1.039414715222571</v>
       </c>
       <c r="D23">
-        <v>0.9773667757513899</v>
+        <v>1.04194877349079</v>
       </c>
       <c r="E23">
-        <v>0.9620172274604666</v>
+        <v>1.051113483087569</v>
       </c>
       <c r="F23">
-        <v>0.9685771737314478</v>
+        <v>1.05853111168852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02661340973614</v>
+        <v>1.039051383146745</v>
       </c>
       <c r="J23">
-        <v>0.979268636803969</v>
+        <v>1.046090236004156</v>
       </c>
       <c r="K23">
-        <v>0.9930767793662847</v>
+        <v>1.045567207551279</v>
       </c>
       <c r="L23">
-        <v>0.978049364957023</v>
+        <v>1.054697961222927</v>
       </c>
       <c r="M23">
-        <v>0.9844699877382138</v>
+        <v>1.062088582564361</v>
       </c>
       <c r="N23">
-        <v>0.9806593105919132</v>
+        <v>1.047575804127509</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9652785824237887</v>
+        <v>1.04210173900592</v>
       </c>
       <c r="D24">
-        <v>0.9917830386861337</v>
+        <v>1.044035169735466</v>
       </c>
       <c r="E24">
-        <v>0.9780565634934147</v>
+        <v>1.053485503050853</v>
       </c>
       <c r="F24">
-        <v>0.9854377811057626</v>
+        <v>1.061048700755366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03368930283802</v>
+        <v>1.039860507531859</v>
       </c>
       <c r="J24">
-        <v>0.9941819759160327</v>
+        <v>1.048250534756767</v>
       </c>
       <c r="K24">
-        <v>1.005956006513725</v>
+        <v>1.047377428568953</v>
       </c>
       <c r="L24">
-        <v>0.9924803095962055</v>
+        <v>1.056795659074353</v>
       </c>
       <c r="M24">
-        <v>0.9997255445262633</v>
+        <v>1.064333616747778</v>
       </c>
       <c r="N24">
-        <v>0.9955938283560999</v>
+        <v>1.049739170752138</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9848082483743669</v>
+        <v>1.045201143340412</v>
       </c>
       <c r="D25">
-        <v>1.006993958107425</v>
+        <v>1.046439742961976</v>
       </c>
       <c r="E25">
-        <v>0.9949423202028392</v>
+        <v>1.056216003765576</v>
       </c>
       <c r="F25">
-        <v>1.003208227436706</v>
+        <v>1.063950152289787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041067725884261</v>
+        <v>1.040784113016582</v>
       </c>
       <c r="J25">
-        <v>1.009857919418581</v>
+        <v>1.050737934915394</v>
       </c>
       <c r="K25">
-        <v>1.019484663482625</v>
+        <v>1.049459205740369</v>
       </c>
       <c r="L25">
-        <v>1.007619660825614</v>
+        <v>1.059205723990151</v>
       </c>
       <c r="M25">
-        <v>1.015756943123557</v>
+        <v>1.066916764504808</v>
       </c>
       <c r="N25">
-        <v>1.011292033496478</v>
+        <v>1.052230103304299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_240/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047658907431494</v>
+        <v>0.9991099876429508</v>
       </c>
       <c r="D2">
-        <v>1.048344837462129</v>
+        <v>1.018152445406471</v>
       </c>
       <c r="E2">
-        <v>1.058376802429152</v>
+        <v>1.007304251986635</v>
       </c>
       <c r="F2">
-        <v>1.066248942139921</v>
+        <v>1.016234501695057</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041508688651584</v>
+        <v>1.04641198078533</v>
       </c>
       <c r="J2">
-        <v>1.052706800491214</v>
+        <v>1.021317351453628</v>
       </c>
       <c r="K2">
-        <v>1.051104942810012</v>
+        <v>1.029364550291081</v>
       </c>
       <c r="L2">
-        <v>1.06110920413722</v>
+        <v>1.018662756330763</v>
       </c>
       <c r="M2">
-        <v>1.068959999701391</v>
+        <v>1.027472204052566</v>
       </c>
       <c r="N2">
-        <v>1.054201764895069</v>
+        <v>1.022767739239429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049435552865936</v>
+        <v>1.008883289520372</v>
       </c>
       <c r="D3">
-        <v>1.049720972898623</v>
+        <v>1.025784408087641</v>
       </c>
       <c r="E3">
-        <v>1.05993623212775</v>
+        <v>1.015746870628631</v>
       </c>
       <c r="F3">
-        <v>1.067909521328594</v>
+        <v>1.02514065766425</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042027919677412</v>
+        <v>1.050028122161441</v>
       </c>
       <c r="J3">
-        <v>1.054127946448451</v>
+        <v>1.029134682045587</v>
       </c>
       <c r="K3">
-        <v>1.052291645408929</v>
+        <v>1.036097668961583</v>
       </c>
       <c r="L3">
-        <v>1.062480765871848</v>
+        <v>1.02618215522892</v>
       </c>
       <c r="M3">
-        <v>1.07043402732839</v>
+        <v>1.035461655438213</v>
       </c>
       <c r="N3">
-        <v>1.055624929042573</v>
+        <v>1.03059617133749</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050581628555122</v>
+        <v>1.014958697921167</v>
       </c>
       <c r="D4">
-        <v>1.050608216332054</v>
+        <v>1.030530524946004</v>
       </c>
       <c r="E4">
-        <v>1.06094101470865</v>
+        <v>1.02099197301458</v>
       </c>
       <c r="F4">
-        <v>1.068980197803043</v>
+        <v>1.030678325197526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042360759715498</v>
+        <v>1.052258893235543</v>
       </c>
       <c r="J4">
-        <v>1.055043728151591</v>
+        <v>1.033987347272581</v>
       </c>
       <c r="K4">
-        <v>1.053055791144956</v>
+        <v>1.040273924739844</v>
       </c>
       <c r="L4">
-        <v>1.063363500374314</v>
+        <v>1.030843476788796</v>
       </c>
       <c r="M4">
-        <v>1.071383523681383</v>
+        <v>1.040420069299116</v>
       </c>
       <c r="N4">
-        <v>1.056542011260774</v>
+        <v>1.035455727905714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051062611107193</v>
+        <v>1.017457702402778</v>
       </c>
       <c r="D5">
-        <v>1.050980458448197</v>
+        <v>1.03248302813206</v>
       </c>
       <c r="E5">
-        <v>1.06136242008602</v>
+        <v>1.023148604936244</v>
       </c>
       <c r="F5">
-        <v>1.069429411277858</v>
+        <v>1.032956357679861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042499940886447</v>
+        <v>1.053172289865898</v>
       </c>
       <c r="J5">
-        <v>1.055427829037891</v>
+        <v>1.035981683605504</v>
       </c>
       <c r="K5">
-        <v>1.053376157275092</v>
+        <v>1.041989422107132</v>
       </c>
       <c r="L5">
-        <v>1.06373347959474</v>
+        <v>1.032757645783613</v>
       </c>
       <c r="M5">
-        <v>1.071781679703469</v>
+        <v>1.042457607285216</v>
       </c>
       <c r="N5">
-        <v>1.056926657614389</v>
+        <v>1.037452896424984</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051143322180778</v>
+        <v>1.017874184031391</v>
       </c>
       <c r="D6">
-        <v>1.051042915638366</v>
+        <v>1.032808442282752</v>
       </c>
       <c r="E6">
-        <v>1.061433117466951</v>
+        <v>1.023507975011621</v>
       </c>
       <c r="F6">
-        <v>1.069504783998765</v>
+        <v>1.033336022578073</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042523266523639</v>
+        <v>1.053324267064146</v>
       </c>
       <c r="J6">
-        <v>1.055492269282419</v>
+        <v>1.03631395477464</v>
       </c>
       <c r="K6">
-        <v>1.053429896865351</v>
+        <v>1.04227518552932</v>
       </c>
       <c r="L6">
-        <v>1.063795535397926</v>
+        <v>1.033076470708178</v>
       </c>
       <c r="M6">
-        <v>1.071848472975872</v>
+        <v>1.042797061119024</v>
       </c>
       <c r="N6">
-        <v>1.056991189371455</v>
+        <v>1.037785639457292</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050588058695107</v>
+        <v>1.014992300788948</v>
       </c>
       <c r="D7">
-        <v>1.050613193198361</v>
+        <v>1.030556778386282</v>
       </c>
       <c r="E7">
-        <v>1.060946649473736</v>
+        <v>1.021020975625145</v>
       </c>
       <c r="F7">
-        <v>1.068986203723366</v>
+        <v>1.030708956019958</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042362622379033</v>
+        <v>1.052271191933631</v>
       </c>
       <c r="J7">
-        <v>1.055048864018155</v>
+        <v>1.03401417101579</v>
       </c>
       <c r="K7">
-        <v>1.053060075336805</v>
+        <v>1.040297001532353</v>
       </c>
       <c r="L7">
-        <v>1.063368448442302</v>
+        <v>1.030869228341949</v>
       </c>
       <c r="M7">
-        <v>1.071388847816331</v>
+        <v>1.040447475121454</v>
       </c>
       <c r="N7">
-        <v>1.056547154420857</v>
+        <v>1.035482589741716</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048260075475531</v>
+        <v>1.002467217152169</v>
       </c>
       <c r="D8">
-        <v>1.048810581042503</v>
+        <v>1.020773606453746</v>
       </c>
       <c r="E8">
-        <v>1.058904714378963</v>
+        <v>1.010204974827057</v>
       </c>
       <c r="F8">
-        <v>1.066810946315154</v>
+        <v>1.019293516532865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041684818566423</v>
+        <v>1.047657756250411</v>
       </c>
       <c r="J8">
-        <v>1.053187878064723</v>
+        <v>1.024004091958966</v>
       </c>
       <c r="K8">
-        <v>1.051506774302856</v>
+        <v>1.031679350409444</v>
       </c>
       <c r="L8">
-        <v>1.061573725005767</v>
+        <v>1.021248465054124</v>
       </c>
       <c r="M8">
-        <v>1.06945905430259</v>
+        <v>1.030218336037294</v>
       </c>
       <c r="N8">
-        <v>1.054683525653913</v>
+        <v>1.025458295224459</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044129999461962</v>
+        <v>0.9782614922715303</v>
       </c>
       <c r="D9">
-        <v>1.045608988150957</v>
+        <v>1.0018910768407</v>
       </c>
       <c r="E9">
-        <v>1.055273042592385</v>
+        <v>0.9892819541632256</v>
       </c>
       <c r="F9">
-        <v>1.062947732540468</v>
+        <v>0.9972486429278498</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040466131551278</v>
+        <v>1.038603568385683</v>
       </c>
       <c r="J9">
-        <v>1.049878854236686</v>
+        <v>1.004605958471908</v>
       </c>
       <c r="K9">
-        <v>1.048740535529212</v>
+        <v>1.014953546972202</v>
       </c>
       <c r="L9">
-        <v>1.058374004952552</v>
+        <v>1.002551351172373</v>
       </c>
       <c r="M9">
-        <v>1.066024838563213</v>
+        <v>1.01038651726488</v>
       </c>
       <c r="N9">
-        <v>1.05136980263249</v>
+        <v>1.006032614162852</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041356728396774</v>
+        <v>0.9602992710086358</v>
       </c>
       <c r="D10">
-        <v>1.0434568472364</v>
+        <v>0.9879109060118368</v>
       </c>
       <c r="E10">
-        <v>1.052828269884502</v>
+        <v>0.9737518540020301</v>
       </c>
       <c r="F10">
-        <v>1.060350866815845</v>
+        <v>0.9809110458873702</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03963692928519</v>
+        <v>1.031796044615328</v>
       </c>
       <c r="J10">
-        <v>1.047651913715035</v>
+        <v>0.9901816553862134</v>
       </c>
       <c r="K10">
-        <v>1.046876013239203</v>
+        <v>1.002501918047427</v>
       </c>
       <c r="L10">
-        <v>1.056214801191885</v>
+        <v>0.9886117698221498</v>
       </c>
       <c r="M10">
-        <v>1.063711660649192</v>
+        <v>0.9956337281429199</v>
       </c>
       <c r="N10">
-        <v>1.049139699599865</v>
+        <v>0.9915878269122852</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040150897250525</v>
+        <v>0.951975642392174</v>
       </c>
       <c r="D11">
-        <v>1.04252055108532</v>
+        <v>0.9814444222942813</v>
       </c>
       <c r="E11">
-        <v>1.051763794064084</v>
+        <v>0.9665574253108798</v>
       </c>
       <c r="F11">
-        <v>1.059221068657623</v>
+        <v>0.9733482533593729</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039273814112397</v>
+        <v>1.028622156163254</v>
       </c>
       <c r="J11">
-        <v>1.046682450648252</v>
+        <v>0.9834923643015995</v>
       </c>
       <c r="K11">
-        <v>1.046063649006397</v>
+        <v>0.9967249637195952</v>
       </c>
       <c r="L11">
-        <v>1.055273425780503</v>
+        <v>0.9821388327319283</v>
       </c>
       <c r="M11">
-        <v>1.062704169919472</v>
+        <v>0.988790914581392</v>
       </c>
       <c r="N11">
-        <v>1.048168859784328</v>
+        <v>0.9848890362670589</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039702226413301</v>
+        <v>0.9487896392704196</v>
       </c>
       <c r="D12">
-        <v>1.042172091019213</v>
+        <v>0.9789715028873933</v>
       </c>
       <c r="E12">
-        <v>1.051367496249382</v>
+        <v>0.9638043108587919</v>
       </c>
       <c r="F12">
-        <v>1.058800587377072</v>
+        <v>0.9704549981606491</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039138318383942</v>
+        <v>1.027404590512144</v>
       </c>
       <c r="J12">
-        <v>1.046321551943612</v>
+        <v>0.9809313667579929</v>
       </c>
       <c r="K12">
-        <v>1.045761132224129</v>
+        <v>0.994512977647054</v>
       </c>
       <c r="L12">
-        <v>1.054922771163911</v>
+        <v>0.9796594455277874</v>
       </c>
       <c r="M12">
-        <v>1.062329040587693</v>
+        <v>0.9861710014118283</v>
       </c>
       <c r="N12">
-        <v>1.047807448562131</v>
+        <v>0.9823244018131898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039798503102269</v>
+        <v>0.9494775382451541</v>
       </c>
       <c r="D13">
-        <v>1.042246867829006</v>
+        <v>0.9795053293454631</v>
       </c>
       <c r="E13">
-        <v>1.051452544740146</v>
+        <v>0.9643987070488694</v>
       </c>
       <c r="F13">
-        <v>1.058890819679438</v>
+        <v>0.97107961435546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039167410797114</v>
+        <v>1.027667597114438</v>
       </c>
       <c r="J13">
-        <v>1.046399002300436</v>
+        <v>0.9814843406398998</v>
       </c>
       <c r="K13">
-        <v>1.045826058126138</v>
+        <v>0.9949906032514468</v>
       </c>
       <c r="L13">
-        <v>1.054998032713459</v>
+        <v>0.9801948519758779</v>
       </c>
       <c r="M13">
-        <v>1.062409548272581</v>
+        <v>0.9867367018849331</v>
       </c>
       <c r="N13">
-        <v>1.047885008907346</v>
+        <v>0.9828781609814358</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040113825846773</v>
+        <v>0.9517142891821689</v>
       </c>
       <c r="D14">
-        <v>1.042491761192784</v>
+        <v>0.9812415166097043</v>
       </c>
       <c r="E14">
-        <v>1.05173105453316</v>
+        <v>0.966331566902372</v>
       </c>
       <c r="F14">
-        <v>1.059186328479892</v>
+        <v>0.9731108818088995</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039262626657974</v>
+        <v>1.028522330683513</v>
       </c>
       <c r="J14">
-        <v>1.046652635012882</v>
+        <v>0.9832822914079915</v>
       </c>
       <c r="K14">
-        <v>1.046038658641814</v>
+        <v>0.9965435244298823</v>
       </c>
       <c r="L14">
-        <v>1.055244460791279</v>
+        <v>0.9819354784551243</v>
       </c>
       <c r="M14">
-        <v>1.06267318014104</v>
+        <v>0.9885760114979733</v>
       </c>
       <c r="N14">
-        <v>1.048139001807336</v>
+        <v>0.9846786650458463</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040308003698487</v>
+        <v>0.9530795263855468</v>
       </c>
       <c r="D15">
-        <v>1.042642557748465</v>
+        <v>0.9823015331567713</v>
       </c>
       <c r="E15">
-        <v>1.051902533151793</v>
+        <v>0.9675114183554651</v>
       </c>
       <c r="F15">
-        <v>1.059368291363468</v>
+        <v>0.9743509092523539</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039321210087081</v>
+        <v>1.029043683171676</v>
       </c>
       <c r="J15">
-        <v>1.046808800343254</v>
+        <v>0.9843796328927604</v>
       </c>
       <c r="K15">
-        <v>1.046169546537238</v>
+        <v>0.9974912841971896</v>
       </c>
       <c r="L15">
-        <v>1.055396162009028</v>
+        <v>0.9829976753845249</v>
       </c>
       <c r="M15">
-        <v>1.062835492236332</v>
+        <v>0.9896985787079493</v>
       </c>
       <c r="N15">
-        <v>1.048295388910389</v>
+        <v>0.9857775648813902</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041436648482842</v>
+        <v>0.9608391974236529</v>
       </c>
       <c r="D16">
-        <v>1.043518891944189</v>
+        <v>0.9883306441898448</v>
       </c>
       <c r="E16">
-        <v>1.052898790050783</v>
+        <v>0.9742186040636229</v>
       </c>
       <c r="F16">
-        <v>1.060425733463393</v>
+        <v>0.9814018084612752</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03966094172866</v>
+        <v>1.032001544034413</v>
       </c>
       <c r="J16">
-        <v>1.047716143031323</v>
+        <v>0.9906154790266194</v>
       </c>
       <c r="K16">
-        <v>1.04692982024461</v>
+        <v>1.002876530175906</v>
       </c>
       <c r="L16">
-        <v>1.056277140050943</v>
+        <v>0.9890313927416433</v>
       </c>
       <c r="M16">
-        <v>1.063778399076404</v>
+        <v>0.9960774867663752</v>
       </c>
       <c r="N16">
-        <v>1.049204020129149</v>
+        <v>0.9920222666320206</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04214326686817</v>
+        <v>0.9655526479585443</v>
       </c>
       <c r="D17">
-        <v>1.044067402543828</v>
+        <v>0.991996242198218</v>
       </c>
       <c r="E17">
-        <v>1.053522128031078</v>
+        <v>0.9782935124070291</v>
       </c>
       <c r="F17">
-        <v>1.061087594376778</v>
+        <v>0.9856869888877745</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039872952559011</v>
+        <v>1.033793382255981</v>
       </c>
       <c r="J17">
-        <v>1.048283894651643</v>
+        <v>0.9944021231798115</v>
       </c>
       <c r="K17">
-        <v>1.047405366809213</v>
+        <v>1.006146076883139</v>
       </c>
       <c r="L17">
-        <v>1.056828019540893</v>
+        <v>0.9926931490472244</v>
       </c>
       <c r="M17">
-        <v>1.06436827375341</v>
+        <v>0.999950719149342</v>
       </c>
       <c r="N17">
-        <v>1.049772578021892</v>
+        <v>0.9958142882542446</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042554945815819</v>
+        <v>0.96825020461773</v>
       </c>
       <c r="D18">
-        <v>1.04438691558981</v>
+        <v>0.9940951695331824</v>
       </c>
       <c r="E18">
-        <v>1.053885145340927</v>
+        <v>0.9806257996094525</v>
       </c>
       <c r="F18">
-        <v>1.06147313309053</v>
+        <v>0.9881401580626976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039996223200174</v>
+        <v>1.034817068670199</v>
       </c>
       <c r="J18">
-        <v>1.048614555714972</v>
+        <v>0.9965687699351193</v>
       </c>
       <c r="K18">
-        <v>1.047682262360335</v>
+        <v>1.008016612459522</v>
       </c>
       <c r="L18">
-        <v>1.057148719611741</v>
+        <v>0.9947875525733315</v>
       </c>
       <c r="M18">
-        <v>1.064711772762542</v>
+        <v>1.002166796986075</v>
       </c>
       <c r="N18">
-        <v>1.050103708661857</v>
+        <v>0.9979840118964628</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042695237019783</v>
+        <v>0.9691615591923229</v>
       </c>
       <c r="D19">
-        <v>1.044495789866202</v>
+        <v>0.9948044498531022</v>
       </c>
       <c r="E19">
-        <v>1.054008829650195</v>
+        <v>0.981413770817692</v>
       </c>
       <c r="F19">
-        <v>1.061604505379885</v>
+        <v>0.9889690607906915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040038189101624</v>
+        <v>1.035162604868799</v>
       </c>
       <c r="J19">
-        <v>1.048727218527179</v>
+        <v>0.9973006712215111</v>
       </c>
       <c r="K19">
-        <v>1.04777659516978</v>
+        <v>1.008648443387417</v>
       </c>
       <c r="L19">
-        <v>1.057257965735341</v>
+        <v>0.995494915714531</v>
       </c>
       <c r="M19">
-        <v>1.064828801848719</v>
+        <v>1.002915376241329</v>
       </c>
       <c r="N19">
-        <v>1.050216531468182</v>
+        <v>0.9987169525666314</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042067503170931</v>
+        <v>0.9650523689390769</v>
       </c>
       <c r="D20">
-        <v>1.044008596510934</v>
+        <v>0.9916070666804518</v>
       </c>
       <c r="E20">
-        <v>1.053455308381687</v>
+        <v>0.9778609869895752</v>
       </c>
       <c r="F20">
-        <v>1.061016636242547</v>
+        <v>0.9852320892200953</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039850246374173</v>
+        <v>1.033603385498822</v>
       </c>
       <c r="J20">
-        <v>1.048223032005982</v>
+        <v>0.9940002637241695</v>
       </c>
       <c r="K20">
-        <v>1.047354395202842</v>
+        <v>1.005799118786628</v>
       </c>
       <c r="L20">
-        <v>1.056768979518791</v>
+        <v>0.9923046248925538</v>
       </c>
       <c r="M20">
-        <v>1.064305044362864</v>
+        <v>0.9995396820439851</v>
       </c>
       <c r="N20">
-        <v>1.049711628944293</v>
+        <v>0.9954118581120815</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040020992634353</v>
+        <v>0.9510583349682087</v>
       </c>
       <c r="D21">
-        <v>1.042419665047899</v>
+        <v>0.9807322936568217</v>
       </c>
       <c r="E21">
-        <v>1.051649065474261</v>
+        <v>0.965764710935106</v>
       </c>
       <c r="F21">
-        <v>1.059099331425935</v>
+        <v>0.9725151433707864</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039234605099709</v>
+        <v>1.028271742194989</v>
       </c>
       <c r="J21">
-        <v>1.046577968648389</v>
+        <v>0.9827550342195716</v>
       </c>
       <c r="K21">
-        <v>1.045976074427926</v>
+        <v>0.9960881299955692</v>
       </c>
       <c r="L21">
-        <v>1.055171921244896</v>
+        <v>0.9814250648020947</v>
       </c>
       <c r="M21">
-        <v>1.062595572204508</v>
+        <v>0.9880366290556784</v>
       </c>
       <c r="N21">
-        <v>1.04806422940804</v>
+        <v>0.9841506590917414</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038729795543063</v>
+        <v>0.9417062893740176</v>
       </c>
       <c r="D22">
-        <v>1.041416709962735</v>
+        <v>0.9734782480020975</v>
       </c>
       <c r="E22">
-        <v>1.050508167062721</v>
+        <v>0.9576850951815591</v>
       </c>
       <c r="F22">
-        <v>1.0578890676494</v>
+        <v>0.9640257702587675</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038843944081623</v>
+        <v>1.024692836659187</v>
       </c>
       <c r="J22">
-        <v>1.045539031858845</v>
+        <v>0.9752367980798615</v>
       </c>
       <c r="K22">
-        <v>1.045105015221287</v>
+        <v>0.989594073318549</v>
       </c>
       <c r="L22">
-        <v>1.054162073038483</v>
+        <v>0.9741441557625378</v>
       </c>
       <c r="M22">
-        <v>1.061515527708601</v>
+        <v>0.9803452328195338</v>
       </c>
       <c r="N22">
-        <v>1.047023817209088</v>
+        <v>0.9766217461943593</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039414715222571</v>
+        <v>0.9467212847914742</v>
       </c>
       <c r="D23">
-        <v>1.04194877349079</v>
+        <v>0.9773667757513906</v>
       </c>
       <c r="E23">
-        <v>1.051113483087569</v>
+        <v>0.962017227460467</v>
       </c>
       <c r="F23">
-        <v>1.05853111168852</v>
+        <v>0.9685771737314484</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039051383146745</v>
+        <v>1.02661340973614</v>
       </c>
       <c r="J23">
-        <v>1.046090236004156</v>
+        <v>0.9792686368039695</v>
       </c>
       <c r="K23">
-        <v>1.045567207551279</v>
+        <v>0.9930767793662851</v>
       </c>
       <c r="L23">
-        <v>1.054697961222927</v>
+        <v>0.9780493649570235</v>
       </c>
       <c r="M23">
-        <v>1.062088582564361</v>
+        <v>0.9844699877382143</v>
       </c>
       <c r="N23">
-        <v>1.047575804127509</v>
+        <v>0.9806593105919137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04210173900592</v>
+        <v>0.9652785824237895</v>
       </c>
       <c r="D24">
-        <v>1.044035169735466</v>
+        <v>0.9917830386861345</v>
       </c>
       <c r="E24">
-        <v>1.053485503050853</v>
+        <v>0.9780565634934147</v>
       </c>
       <c r="F24">
-        <v>1.061048700755366</v>
+        <v>0.9854377811057627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039860507531859</v>
+        <v>1.033689302838021</v>
       </c>
       <c r="J24">
-        <v>1.048250534756767</v>
+        <v>0.9941819759160334</v>
       </c>
       <c r="K24">
-        <v>1.047377428568953</v>
+        <v>1.005956006513726</v>
       </c>
       <c r="L24">
-        <v>1.056795659074353</v>
+        <v>0.9924803095962055</v>
       </c>
       <c r="M24">
-        <v>1.064333616747778</v>
+        <v>0.9997255445262632</v>
       </c>
       <c r="N24">
-        <v>1.049739170752138</v>
+        <v>0.9955938283561007</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045201143340412</v>
+        <v>0.9848082483743654</v>
       </c>
       <c r="D25">
-        <v>1.046439742961976</v>
+        <v>1.006993958107424</v>
       </c>
       <c r="E25">
-        <v>1.056216003765576</v>
+        <v>0.9949423202028383</v>
       </c>
       <c r="F25">
-        <v>1.063950152289787</v>
+        <v>1.003208227436705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040784113016582</v>
+        <v>1.04106772588426</v>
       </c>
       <c r="J25">
-        <v>1.050737934915394</v>
+        <v>1.009857919418579</v>
       </c>
       <c r="K25">
-        <v>1.049459205740369</v>
+        <v>1.019484663482624</v>
       </c>
       <c r="L25">
-        <v>1.059205723990151</v>
+        <v>1.007619660825613</v>
       </c>
       <c r="M25">
-        <v>1.066916764504808</v>
+        <v>1.015756943123556</v>
       </c>
       <c r="N25">
-        <v>1.052230103304299</v>
+        <v>1.011292033496476</v>
       </c>
     </row>
   </sheetData>
